--- a/Code/Results/Cases/Case_0_129/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_129/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9389342324745262</v>
+        <v>1.010622732913008</v>
       </c>
       <c r="D2">
-        <v>0.9480155195999975</v>
+        <v>1.013268254309555</v>
       </c>
       <c r="E2">
-        <v>0.9531202694994395</v>
+        <v>1.012829630966766</v>
       </c>
       <c r="F2">
-        <v>0.9122309421231144</v>
+        <v>1.008866401775824</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9631085372907704</v>
+        <v>1.015875912179003</v>
       </c>
       <c r="K2">
-        <v>0.960249949732348</v>
+        <v>1.016129916656902</v>
       </c>
       <c r="L2">
-        <v>0.9652737974708854</v>
+        <v>1.015692611750708</v>
       </c>
       <c r="M2">
-        <v>0.9250654521581733</v>
+        <v>1.011741352102767</v>
       </c>
       <c r="N2">
-        <v>0.9644762618838165</v>
+        <v>1.017318572496894</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9476929422031909</v>
+        <v>1.012267720130226</v>
       </c>
       <c r="D3">
-        <v>0.955992869367488</v>
+        <v>1.014824216018873</v>
       </c>
       <c r="E3">
-        <v>0.9604064114283895</v>
+        <v>1.014248996179511</v>
       </c>
       <c r="F3">
-        <v>0.9242803732894951</v>
+        <v>1.011170520799082</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9697187557839655</v>
+        <v>1.017150088860458</v>
       </c>
       <c r="K3">
-        <v>0.9672216169707145</v>
+        <v>1.017488479125081</v>
       </c>
       <c r="L3">
-        <v>0.9715722847747312</v>
+        <v>1.016914860441044</v>
       </c>
       <c r="M3">
-        <v>0.9359834553518022</v>
+        <v>1.013844987741668</v>
       </c>
       <c r="N3">
-        <v>0.9710958676454746</v>
+        <v>1.018594558655386</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9531447050055084</v>
+        <v>1.013329534166127</v>
       </c>
       <c r="D4">
-        <v>0.9609651720196785</v>
+        <v>1.01582882617506</v>
       </c>
       <c r="E4">
-        <v>0.9649496411425122</v>
+        <v>1.015165307789248</v>
       </c>
       <c r="F4">
-        <v>0.9317543894858954</v>
+        <v>1.012658018727509</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9738279700764696</v>
+        <v>1.017971744485487</v>
       </c>
       <c r="K4">
-        <v>0.9715587194354641</v>
+        <v>1.018364895301193</v>
       </c>
       <c r="L4">
-        <v>0.9754903476159545</v>
+        <v>1.017703128852679</v>
       </c>
       <c r="M4">
-        <v>0.9427527959560454</v>
+        <v>1.015202482377503</v>
       </c>
       <c r="N4">
-        <v>0.9752109174936077</v>
+        <v>1.019417381125647</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9553888646998885</v>
+        <v>1.013775313124032</v>
       </c>
       <c r="D5">
-        <v>0.9630135183467078</v>
+        <v>1.016250651085926</v>
       </c>
       <c r="E5">
-        <v>0.9668215828915874</v>
+        <v>1.015550031501987</v>
       </c>
       <c r="F5">
-        <v>0.9348257451469643</v>
+        <v>1.013282571957313</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9755181850391275</v>
+        <v>1.018316505173811</v>
       </c>
       <c r="K5">
-        <v>0.9733434236975377</v>
+        <v>1.018732715462581</v>
       </c>
       <c r="L5">
-        <v>0.9771025177810986</v>
+        <v>1.018033903713063</v>
       </c>
       <c r="M5">
-        <v>0.9455337817677353</v>
+        <v>1.015772313472751</v>
       </c>
       <c r="N5">
-        <v>0.9769035327553829</v>
+        <v>1.019762631413693</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9557629724339844</v>
+        <v>1.013850126184366</v>
       </c>
       <c r="D6">
-        <v>0.9633550719200799</v>
+        <v>1.016321447647368</v>
       </c>
       <c r="E6">
-        <v>0.9671337405601474</v>
+        <v>1.015614599704553</v>
       </c>
       <c r="F6">
-        <v>0.9353374667839217</v>
+        <v>1.0133873916259</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.975799871023921</v>
+        <v>1.018374353465014</v>
       </c>
       <c r="K6">
-        <v>0.9736409009826402</v>
+        <v>1.018794437791005</v>
       </c>
       <c r="L6">
-        <v>0.9773712297985202</v>
+        <v>1.01808940663465</v>
       </c>
       <c r="M6">
-        <v>0.9459970752798117</v>
+        <v>1.015867940953244</v>
       </c>
       <c r="N6">
-        <v>0.9771856187665845</v>
+        <v>1.019820561856106</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.95317487446456</v>
+        <v>1.013335493053048</v>
       </c>
       <c r="D7">
-        <v>0.960992703031076</v>
+        <v>1.015834464617905</v>
       </c>
       <c r="E7">
-        <v>0.964974799859208</v>
+        <v>1.015170450409669</v>
       </c>
       <c r="F7">
-        <v>0.9317956989549161</v>
+        <v>1.012666367108049</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9738506977589428</v>
+        <v>1.017976353784442</v>
       </c>
       <c r="K7">
-        <v>0.9715827147067412</v>
+        <v>1.018369812571446</v>
       </c>
       <c r="L7">
-        <v>0.9755120236230244</v>
+        <v>1.017707551076573</v>
       </c>
       <c r="M7">
-        <v>0.9427902032426012</v>
+        <v>1.015210099831562</v>
       </c>
       <c r="N7">
-        <v>0.9752336774519968</v>
+        <v>1.019421996970336</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9419414344806011</v>
+        <v>1.011179212277533</v>
       </c>
       <c r="D8">
-        <v>0.9507529221221457</v>
+        <v>1.013794562926315</v>
       </c>
       <c r="E8">
-        <v>0.9556200677698289</v>
+        <v>1.013309756813115</v>
       </c>
       <c r="F8">
-        <v>0.9163741687000913</v>
+        <v>1.009645814975661</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9653791673487209</v>
+        <v>1.016307117841988</v>
       </c>
       <c r="K8">
-        <v>0.9626440507619098</v>
+        <v>1.016589608609779</v>
       </c>
       <c r="L8">
-        <v>0.9674367527486184</v>
+        <v>1.016106223262074</v>
       </c>
       <c r="M8">
-        <v>0.9288201772761772</v>
+        <v>1.012453066933475</v>
       </c>
       <c r="N8">
-        <v>0.9667501164968944</v>
+        <v>1.017750390521379</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9202902770185604</v>
+        <v>1.007358940637754</v>
       </c>
       <c r="D9">
-        <v>0.9310795308178506</v>
+        <v>1.010182517007349</v>
       </c>
       <c r="E9">
-        <v>0.9376654744980787</v>
+        <v>1.01001425211909</v>
       </c>
       <c r="F9">
-        <v>0.8863765293055372</v>
+        <v>1.004295744692176</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9490098087994957</v>
+        <v>1.013343546487522</v>
       </c>
       <c r="K9">
-        <v>0.945399389031141</v>
+        <v>1.013431680646142</v>
       </c>
       <c r="L9">
-        <v>0.951857900821567</v>
+        <v>1.013263996046943</v>
       </c>
       <c r="M9">
-        <v>0.9016280361326751</v>
+        <v>1.007565337116161</v>
       </c>
       <c r="N9">
-        <v>0.9503575115809374</v>
+        <v>1.014782610555663</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9042606863427943</v>
+        <v>1.004797244699635</v>
       </c>
       <c r="D10">
-        <v>0.9165664532210823</v>
+        <v>1.007761862039963</v>
       </c>
       <c r="E10">
-        <v>0.9244395873371037</v>
+        <v>1.007805237397172</v>
       </c>
       <c r="F10">
-        <v>0.8638704801617563</v>
+        <v>1.000708777428092</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.936864865104854</v>
+        <v>1.011352153591791</v>
       </c>
       <c r="K10">
-        <v>0.9326253506160287</v>
+        <v>1.011311481969041</v>
       </c>
       <c r="L10">
-        <v>0.9403216874570455</v>
+        <v>1.011354692591863</v>
       </c>
       <c r="M10">
-        <v>0.8812256432073126</v>
+        <v>1.00428539486348</v>
       </c>
       <c r="N10">
-        <v>0.9381953206732049</v>
+        <v>1.012788389653605</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8968391547456759</v>
+        <v>1.003684261183982</v>
       </c>
       <c r="D11">
-        <v>0.9098619717277734</v>
+        <v>1.006710501723597</v>
       </c>
       <c r="E11">
-        <v>0.9183362043108882</v>
+        <v>1.006845688626189</v>
       </c>
       <c r="F11">
-        <v>0.8533456012816593</v>
+        <v>0.9991503778886717</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9312363066368053</v>
+        <v>1.010485965543977</v>
       </c>
       <c r="K11">
-        <v>0.9267105492723889</v>
+        <v>1.010389694353908</v>
       </c>
       <c r="L11">
-        <v>0.9349820416244035</v>
+        <v>1.0105243472595</v>
       </c>
       <c r="M11">
-        <v>0.8716877855383575</v>
+        <v>1.002859689474237</v>
       </c>
       <c r="N11">
-        <v>0.9325587690065271</v>
+        <v>1.01192097151941</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8939990238476512</v>
+        <v>1.00327026682997</v>
       </c>
       <c r="D12">
-        <v>0.907298735775192</v>
+        <v>1.006319481849011</v>
       </c>
       <c r="E12">
-        <v>0.916003950138006</v>
+        <v>1.006488799212478</v>
       </c>
       <c r="F12">
-        <v>0.8492981842505066</v>
+        <v>0.9985707002937256</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9290815241021295</v>
+        <v>1.010163623420673</v>
       </c>
       <c r="K12">
-        <v>0.9244470353669123</v>
+        <v>1.010046725662995</v>
       </c>
       <c r="L12">
-        <v>0.932939047403293</v>
+        <v>1.010215364615088</v>
       </c>
       <c r="M12">
-        <v>0.8680208306643993</v>
+        <v>1.002329265808783</v>
       </c>
       <c r="N12">
-        <v>0.9304009264334948</v>
+        <v>1.011598171633318</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8946122276009576</v>
+        <v>1.003359096700946</v>
       </c>
       <c r="D13">
-        <v>0.9078520395790971</v>
+        <v>1.00640337974255</v>
       </c>
       <c r="E13">
-        <v>0.9165073374413393</v>
+        <v>1.006565374725978</v>
       </c>
       <c r="F13">
-        <v>0.8501730104179441</v>
+        <v>0.9986950807090053</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9295467920875099</v>
+        <v>1.010232794355919</v>
       </c>
       <c r="K13">
-        <v>0.9249357416583142</v>
+        <v>1.010120319918557</v>
       </c>
       <c r="L13">
-        <v>0.9333801213546127</v>
+        <v>1.010281667800164</v>
       </c>
       <c r="M13">
-        <v>0.8688133740275114</v>
+        <v>1.00244308260659</v>
       </c>
       <c r="N13">
-        <v>0.9308668551527814</v>
+        <v>1.011667440799226</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8966061654862263</v>
+        <v>1.003650052279565</v>
       </c>
       <c r="D14">
-        <v>0.9096516456527156</v>
+        <v>1.006678190153546</v>
       </c>
       <c r="E14">
-        <v>0.9181448064535783</v>
+        <v>1.006816197716495</v>
       </c>
       <c r="F14">
-        <v>0.8530139964773209</v>
+        <v>0.9991024784588273</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9310595557367077</v>
+        <v>1.010459332998334</v>
       </c>
       <c r="K14">
-        <v>0.9265248618913354</v>
+        <v>1.010361356291173</v>
       </c>
       <c r="L14">
-        <v>0.9348144354425726</v>
+        <v>1.010498818069175</v>
       </c>
       <c r="M14">
-        <v>0.8713873311916555</v>
+        <v>1.002815862078011</v>
       </c>
       <c r="N14">
-        <v>0.9323817670998776</v>
+        <v>1.011894301152497</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8978232576883163</v>
+        <v>1.003829241826</v>
       </c>
       <c r="D15">
-        <v>0.910750451840784</v>
+        <v>1.006847443437462</v>
       </c>
       <c r="E15">
-        <v>0.9191447746890477</v>
+        <v>1.006970675272938</v>
       </c>
       <c r="F15">
-        <v>0.8547454159927576</v>
+        <v>0.999353380142539</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9319828370813362</v>
+        <v>1.010598830796842</v>
       </c>
       <c r="K15">
-        <v>0.9274948588799927</v>
+        <v>1.010509789992769</v>
       </c>
       <c r="L15">
-        <v>0.9356899970936312</v>
+        <v>1.01063253749945</v>
       </c>
       <c r="M15">
-        <v>0.8729561426228498</v>
+        <v>1.003045429803249</v>
       </c>
       <c r="N15">
-        <v>0.9333063596099171</v>
+        <v>1.01203399705388</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9047422021792945</v>
+        <v>1.004871029079135</v>
       </c>
       <c r="D16">
-        <v>0.9170017716257322</v>
+        <v>1.007831568482542</v>
       </c>
       <c r="E16">
-        <v>0.9248360251264223</v>
+        <v>1.007868854363161</v>
       </c>
       <c r="F16">
-        <v>0.864550893587546</v>
+        <v>1.000812090378618</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9372299402866793</v>
+        <v>1.01140955614799</v>
       </c>
       <c r="K16">
-        <v>0.9330091047446674</v>
+        <v>1.01137257810577</v>
       </c>
       <c r="L16">
-        <v>0.9406681753657429</v>
+        <v>1.011409722754908</v>
       </c>
       <c r="M16">
-        <v>0.881842345297146</v>
+        <v>1.004379896328309</v>
       </c>
       <c r="N16">
-        <v>0.9385609143036631</v>
+        <v>1.012845873728017</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9089464448279219</v>
+        <v>1.00552349678381</v>
       </c>
       <c r="D17">
-        <v>0.9208043400306065</v>
+        <v>1.008448015285461</v>
       </c>
       <c r="E17">
-        <v>0.928299706507791</v>
+        <v>1.008431436462027</v>
       </c>
       <c r="F17">
-        <v>0.8704797380520599</v>
+        <v>1.001725679268547</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9404168933425402</v>
+        <v>1.011917047514307</v>
       </c>
       <c r="K17">
-        <v>0.9363597132599301</v>
+        <v>1.01191277329278</v>
       </c>
       <c r="L17">
-        <v>0.9436936416800397</v>
+        <v>1.011896255789869</v>
       </c>
       <c r="M17">
-        <v>0.887216431930131</v>
+        <v>1.005215485621803</v>
       </c>
       <c r="N17">
-        <v>0.941752393198412</v>
+        <v>1.013354085790285</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9113532149450042</v>
+        <v>1.00590370941189</v>
       </c>
       <c r="D18">
-        <v>0.9229825315153071</v>
+        <v>1.00880727060816</v>
       </c>
       <c r="E18">
-        <v>0.930284361569845</v>
+        <v>1.008759289670581</v>
       </c>
       <c r="F18">
-        <v>0.8738643640880795</v>
+        <v>1.00225805900373</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9422407851200976</v>
+        <v>1.012212683207891</v>
       </c>
       <c r="K18">
-        <v>0.938277752588251</v>
+        <v>1.012227501417766</v>
       </c>
       <c r="L18">
-        <v>0.9454257320515911</v>
+        <v>1.012179695460119</v>
       </c>
       <c r="M18">
-        <v>0.8902846300395733</v>
+        <v>1.005702345219156</v>
       </c>
       <c r="N18">
-        <v>0.9435788751114971</v>
+        <v>1.013650141320464</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9121664453743129</v>
+        <v>1.006033291474621</v>
       </c>
       <c r="D19">
-        <v>0.9237187517251563</v>
+        <v>1.008929715713357</v>
       </c>
       <c r="E19">
-        <v>0.9309552612754868</v>
+        <v>1.008871030162452</v>
       </c>
       <c r="F19">
-        <v>0.8750065063022404</v>
+        <v>1.00243950275952</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9428569758991099</v>
+        <v>1.012313424113663</v>
       </c>
       <c r="K19">
-        <v>0.9389258319211772</v>
+        <v>1.012334755224156</v>
       </c>
       <c r="L19">
-        <v>0.9460110088212043</v>
+        <v>1.012276282654582</v>
       </c>
       <c r="M19">
-        <v>0.8913200291554927</v>
+        <v>1.005868263575752</v>
       </c>
       <c r="N19">
-        <v>0.9441959409520935</v>
+        <v>1.013751025289877</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9085001479813554</v>
+        <v>1.005453530624437</v>
       </c>
       <c r="D20">
-        <v>0.9204005386959291</v>
+        <v>1.008381908323378</v>
       </c>
       <c r="E20">
-        <v>0.9279318299457316</v>
+        <v>1.008371106976772</v>
       </c>
       <c r="F20">
-        <v>0.8698513727606215</v>
+        <v>1.001627711917561</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9400786394902096</v>
+        <v>1.011862637435466</v>
       </c>
       <c r="K20">
-        <v>0.9360040383643287</v>
+        <v>1.011854852665216</v>
       </c>
       <c r="L20">
-        <v>0.9433724622066839</v>
+        <v>1.011844091372952</v>
       </c>
       <c r="M20">
-        <v>0.8866468317734042</v>
+        <v>1.00512588938099</v>
       </c>
       <c r="N20">
-        <v>0.941413658986813</v>
+        <v>1.013299598442891</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.896021407688006</v>
+        <v>1.00356438935315</v>
       </c>
       <c r="D21">
-        <v>0.9091238088420952</v>
+        <v>1.006597279217181</v>
       </c>
       <c r="E21">
-        <v>0.9176644916649167</v>
+        <v>1.006742349700188</v>
       </c>
       <c r="F21">
-        <v>0.8521814021328123</v>
+        <v>0.9989825328530684</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9306159325593361</v>
+        <v>1.010392639736102</v>
       </c>
       <c r="K21">
-        <v>0.9260588230868764</v>
+        <v>1.01029039310712</v>
       </c>
       <c r="L21">
-        <v>0.9343937839848598</v>
+        <v>1.010434888172092</v>
       </c>
       <c r="M21">
-        <v>0.8706329654394307</v>
+        <v>1.002706111623407</v>
       </c>
       <c r="N21">
-        <v>0.9319375139267096</v>
+        <v>1.011827513178183</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8876850155052856</v>
+        <v>1.002373230232304</v>
       </c>
       <c r="D22">
-        <v>0.9016052263172867</v>
+        <v>1.005472323144594</v>
       </c>
       <c r="E22">
-        <v>0.9108259361467878</v>
+        <v>1.00571555694255</v>
       </c>
       <c r="F22">
-        <v>0.8402582730940593</v>
+        <v>0.9973146500667869</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9242896813650326</v>
+        <v>1.00946490717971</v>
       </c>
       <c r="K22">
-        <v>0.9194150455811624</v>
+        <v>1.009303416377553</v>
       </c>
       <c r="L22">
-        <v>0.9283982133377952</v>
+        <v>1.009545645695087</v>
       </c>
       <c r="M22">
-        <v>0.8598329127492766</v>
+        <v>1.00117974896345</v>
       </c>
       <c r="N22">
-        <v>0.9256022787300792</v>
+        <v>1.010898463135149</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8921552993377571</v>
+        <v>1.003005013103309</v>
       </c>
       <c r="D23">
-        <v>0.905635498857904</v>
+        <v>1.0060689632019</v>
       </c>
       <c r="E23">
-        <v>0.9144909523992577</v>
+        <v>1.006260142868672</v>
       </c>
       <c r="F23">
-        <v>0.8466645838235076</v>
+        <v>0.9981992885366436</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9276824836866409</v>
+        <v>1.009957051354936</v>
       </c>
       <c r="K23">
-        <v>0.9229776467409652</v>
+        <v>1.009826953201411</v>
       </c>
       <c r="L23">
-        <v>0.9316129456646851</v>
+        <v>1.010017359913397</v>
       </c>
       <c r="M23">
-        <v>0.8656351062132019</v>
+        <v>1.001989382774208</v>
       </c>
       <c r="N23">
-        <v>0.9289998992201441</v>
+        <v>1.011391306211553</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9087019500822717</v>
+        <v>1.005485146434493</v>
       </c>
       <c r="D24">
-        <v>0.9205831213633645</v>
+        <v>1.008411780164376</v>
       </c>
       <c r="E24">
-        <v>0.9280981670728786</v>
+        <v>1.008398368174521</v>
       </c>
       <c r="F24">
-        <v>0.8701355298167047</v>
+        <v>1.001671980694063</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9402315893947055</v>
+        <v>1.011887224167814</v>
       </c>
       <c r="K24">
-        <v>0.9361648641123557</v>
+        <v>1.011881025611366</v>
       </c>
       <c r="L24">
-        <v>0.9435176895938858</v>
+        <v>1.011867663298968</v>
       </c>
       <c r="M24">
-        <v>0.8869044134640967</v>
+        <v>1.005166375688318</v>
       </c>
       <c r="N24">
-        <v>0.9415668260977167</v>
+        <v>1.013324220091219</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9261395362398845</v>
+        <v>1.008349117105379</v>
       </c>
       <c r="D25">
-        <v>0.9363864368603599</v>
+        <v>1.011118477954688</v>
       </c>
       <c r="E25">
-        <v>0.9425060288739798</v>
+        <v>1.010868279412309</v>
       </c>
       <c r="F25">
-        <v>0.8945215118526705</v>
+        <v>1.005682303827192</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9534366421186964</v>
+        <v>1.01411240667111</v>
       </c>
       <c r="K25">
-        <v>0.950059661021016</v>
+        <v>1.014250649547849</v>
       </c>
       <c r="L25">
-        <v>0.9560676456271792</v>
+        <v>1.01400128018193</v>
       </c>
       <c r="M25">
-        <v>0.9090123784410712</v>
+        <v>1.00883259329417</v>
       </c>
       <c r="N25">
-        <v>0.9547906315112165</v>
+        <v>1.015552562608901</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_129/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_129/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.010622732913008</v>
+        <v>0.9389342324745262</v>
       </c>
       <c r="D2">
-        <v>1.013268254309555</v>
+        <v>0.9480155195999976</v>
       </c>
       <c r="E2">
-        <v>1.012829630966766</v>
+        <v>0.9531202694994395</v>
       </c>
       <c r="F2">
-        <v>1.008866401775824</v>
+        <v>0.912230942123115</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.015875912179003</v>
+        <v>0.9631085372907705</v>
       </c>
       <c r="K2">
-        <v>1.016129916656902</v>
+        <v>0.9602499497323483</v>
       </c>
       <c r="L2">
-        <v>1.015692611750708</v>
+        <v>0.9652737974708852</v>
       </c>
       <c r="M2">
-        <v>1.011741352102767</v>
+        <v>0.9250654521581737</v>
       </c>
       <c r="N2">
-        <v>1.017318572496894</v>
+        <v>0.9644762618838166</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.012267720130226</v>
+        <v>0.9476929422031901</v>
       </c>
       <c r="D3">
-        <v>1.014824216018873</v>
+        <v>0.9559928693674872</v>
       </c>
       <c r="E3">
-        <v>1.014248996179511</v>
+        <v>0.9604064114283888</v>
       </c>
       <c r="F3">
-        <v>1.011170520799082</v>
+        <v>0.9242803732894938</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.017150088860458</v>
+        <v>0.9697187557839646</v>
       </c>
       <c r="K3">
-        <v>1.017488479125081</v>
+        <v>0.9672216169707138</v>
       </c>
       <c r="L3">
-        <v>1.016914860441044</v>
+        <v>0.9715722847747306</v>
       </c>
       <c r="M3">
-        <v>1.013844987741668</v>
+        <v>0.9359834553518009</v>
       </c>
       <c r="N3">
-        <v>1.018594558655386</v>
+        <v>0.9710958676454736</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.013329534166127</v>
+        <v>0.9531447050055085</v>
       </c>
       <c r="D4">
-        <v>1.01582882617506</v>
+        <v>0.960965172019679</v>
       </c>
       <c r="E4">
-        <v>1.015165307789248</v>
+        <v>0.9649496411425124</v>
       </c>
       <c r="F4">
-        <v>1.012658018727509</v>
+        <v>0.9317543894858961</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.017971744485487</v>
+        <v>0.9738279700764699</v>
       </c>
       <c r="K4">
-        <v>1.018364895301193</v>
+        <v>0.9715587194354646</v>
       </c>
       <c r="L4">
-        <v>1.017703128852679</v>
+        <v>0.9754903476159548</v>
       </c>
       <c r="M4">
-        <v>1.015202482377503</v>
+        <v>0.9427527959560462</v>
       </c>
       <c r="N4">
-        <v>1.019417381125647</v>
+        <v>0.975210917493608</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.013775313124032</v>
+        <v>0.9553888646998888</v>
       </c>
       <c r="D5">
-        <v>1.016250651085926</v>
+        <v>0.9630135183467082</v>
       </c>
       <c r="E5">
-        <v>1.015550031501987</v>
+        <v>0.9668215828915875</v>
       </c>
       <c r="F5">
-        <v>1.013282571957313</v>
+        <v>0.9348257451469641</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.018316505173811</v>
+        <v>0.9755181850391279</v>
       </c>
       <c r="K5">
-        <v>1.018732715462581</v>
+        <v>0.9733434236975382</v>
       </c>
       <c r="L5">
-        <v>1.018033903713063</v>
+        <v>0.9771025177810988</v>
       </c>
       <c r="M5">
-        <v>1.015772313472751</v>
+        <v>0.9455337817677354</v>
       </c>
       <c r="N5">
-        <v>1.019762631413693</v>
+        <v>0.9769035327553831</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.013850126184366</v>
+        <v>0.9557629724339837</v>
       </c>
       <c r="D6">
-        <v>1.016321447647368</v>
+        <v>0.9633550719200786</v>
       </c>
       <c r="E6">
-        <v>1.015614599704553</v>
+        <v>0.967133740560146</v>
       </c>
       <c r="F6">
-        <v>1.0133873916259</v>
+        <v>0.9353374667839204</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.018374353465014</v>
+        <v>0.97579987102392</v>
       </c>
       <c r="K6">
-        <v>1.018794437791005</v>
+        <v>0.973640900982639</v>
       </c>
       <c r="L6">
-        <v>1.01808940663465</v>
+        <v>0.9773712297985192</v>
       </c>
       <c r="M6">
-        <v>1.015867940953244</v>
+        <v>0.9459970752798106</v>
       </c>
       <c r="N6">
-        <v>1.019820561856106</v>
+        <v>0.9771856187665835</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.013335493053048</v>
+        <v>0.9531748744645611</v>
       </c>
       <c r="D7">
-        <v>1.015834464617905</v>
+        <v>0.9609927030310771</v>
       </c>
       <c r="E7">
-        <v>1.015170450409669</v>
+        <v>0.9649747998592092</v>
       </c>
       <c r="F7">
-        <v>1.012666367108049</v>
+        <v>0.9317956989549172</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.017976353784442</v>
+        <v>0.9738506977589442</v>
       </c>
       <c r="K7">
-        <v>1.018369812571446</v>
+        <v>0.9715827147067422</v>
       </c>
       <c r="L7">
-        <v>1.017707551076573</v>
+        <v>0.9755120236230251</v>
       </c>
       <c r="M7">
-        <v>1.015210099831562</v>
+        <v>0.9427902032426024</v>
       </c>
       <c r="N7">
-        <v>1.019421996970336</v>
+        <v>0.9752336774519982</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.011179212277533</v>
+        <v>0.941941434480601</v>
       </c>
       <c r="D8">
-        <v>1.013794562926315</v>
+        <v>0.9507529221221458</v>
       </c>
       <c r="E8">
-        <v>1.013309756813115</v>
+        <v>0.955620067769829</v>
       </c>
       <c r="F8">
-        <v>1.009645814975661</v>
+        <v>0.9163741687000915</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.016307117841988</v>
+        <v>0.9653791673487212</v>
       </c>
       <c r="K8">
-        <v>1.016589608609779</v>
+        <v>0.9626440507619101</v>
       </c>
       <c r="L8">
-        <v>1.016106223262074</v>
+        <v>0.9674367527486186</v>
       </c>
       <c r="M8">
-        <v>1.012453066933475</v>
+        <v>0.9288201772761773</v>
       </c>
       <c r="N8">
-        <v>1.017750390521379</v>
+        <v>0.9667501164968944</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.007358940637754</v>
+        <v>0.9202902770185608</v>
       </c>
       <c r="D9">
-        <v>1.010182517007349</v>
+        <v>0.9310795308178508</v>
       </c>
       <c r="E9">
-        <v>1.01001425211909</v>
+        <v>0.9376654744980787</v>
       </c>
       <c r="F9">
-        <v>1.004295744692176</v>
+        <v>0.8863765293055376</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.013343546487522</v>
+        <v>0.9490098087994958</v>
       </c>
       <c r="K9">
-        <v>1.013431680646142</v>
+        <v>0.9453993890311413</v>
       </c>
       <c r="L9">
-        <v>1.013263996046943</v>
+        <v>0.9518579008215672</v>
       </c>
       <c r="M9">
-        <v>1.007565337116161</v>
+        <v>0.9016280361326755</v>
       </c>
       <c r="N9">
-        <v>1.014782610555663</v>
+        <v>0.950357511580938</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.004797244699635</v>
+        <v>0.9042606863427928</v>
       </c>
       <c r="D10">
-        <v>1.007761862039963</v>
+        <v>0.9165664532210808</v>
       </c>
       <c r="E10">
-        <v>1.007805237397172</v>
+        <v>0.9244395873371025</v>
       </c>
       <c r="F10">
-        <v>1.000708777428092</v>
+        <v>0.8638704801617543</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.011352153591791</v>
+        <v>0.9368648651048523</v>
       </c>
       <c r="K10">
-        <v>1.011311481969041</v>
+        <v>0.9326253506160274</v>
       </c>
       <c r="L10">
-        <v>1.011354692591863</v>
+        <v>0.9403216874570441</v>
       </c>
       <c r="M10">
-        <v>1.00428539486348</v>
+        <v>0.8812256432073106</v>
       </c>
       <c r="N10">
-        <v>1.012788389653605</v>
+        <v>0.9381953206732034</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.003684261183982</v>
+        <v>0.8968391547456754</v>
       </c>
       <c r="D11">
-        <v>1.006710501723597</v>
+        <v>0.9098619717277729</v>
       </c>
       <c r="E11">
-        <v>1.006845688626189</v>
+        <v>0.9183362043108878</v>
       </c>
       <c r="F11">
-        <v>0.9991503778886717</v>
+        <v>0.8533456012816591</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.010485965543977</v>
+        <v>0.9312363066368049</v>
       </c>
       <c r="K11">
-        <v>1.010389694353908</v>
+        <v>0.9267105492723883</v>
       </c>
       <c r="L11">
-        <v>1.0105243472595</v>
+        <v>0.934982041624403</v>
       </c>
       <c r="M11">
-        <v>1.002859689474237</v>
+        <v>0.871687785538357</v>
       </c>
       <c r="N11">
-        <v>1.01192097151941</v>
+        <v>0.9325587690065267</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.00327026682997</v>
+        <v>0.893999023847652</v>
       </c>
       <c r="D12">
-        <v>1.006319481849011</v>
+        <v>0.9072987357751927</v>
       </c>
       <c r="E12">
-        <v>1.006488799212478</v>
+        <v>0.9160039501380063</v>
       </c>
       <c r="F12">
-        <v>0.9985707002937256</v>
+        <v>0.8492981842505074</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.010163623420673</v>
+        <v>0.9290815241021302</v>
       </c>
       <c r="K12">
-        <v>1.010046725662995</v>
+        <v>0.9244470353669129</v>
       </c>
       <c r="L12">
-        <v>1.010215364615088</v>
+        <v>0.9329390474032936</v>
       </c>
       <c r="M12">
-        <v>1.002329265808783</v>
+        <v>0.8680208306644001</v>
       </c>
       <c r="N12">
-        <v>1.011598171633318</v>
+        <v>0.9304009264334955</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.003359096700946</v>
+        <v>0.8946122276009566</v>
       </c>
       <c r="D13">
-        <v>1.00640337974255</v>
+        <v>0.9078520395790963</v>
       </c>
       <c r="E13">
-        <v>1.006565374725978</v>
+        <v>0.9165073374413386</v>
       </c>
       <c r="F13">
-        <v>0.9986950807090053</v>
+        <v>0.850173010417943</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.010232794355919</v>
+        <v>0.9295467920875092</v>
       </c>
       <c r="K13">
-        <v>1.010120319918557</v>
+        <v>0.9249357416583133</v>
       </c>
       <c r="L13">
-        <v>1.010281667800164</v>
+        <v>0.9333801213546122</v>
       </c>
       <c r="M13">
-        <v>1.00244308260659</v>
+        <v>0.8688133740275101</v>
       </c>
       <c r="N13">
-        <v>1.011667440799226</v>
+        <v>0.9308668551527808</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.003650052279565</v>
+        <v>0.8966061654862264</v>
       </c>
       <c r="D14">
-        <v>1.006678190153546</v>
+        <v>0.9096516456527161</v>
       </c>
       <c r="E14">
-        <v>1.006816197716495</v>
+        <v>0.9181448064535784</v>
       </c>
       <c r="F14">
-        <v>0.9991024784588273</v>
+        <v>0.8530139964773215</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.010459332998334</v>
+        <v>0.931059555736708</v>
       </c>
       <c r="K14">
-        <v>1.010361356291173</v>
+        <v>0.9265248618913359</v>
       </c>
       <c r="L14">
-        <v>1.010498818069175</v>
+        <v>0.9348144354425729</v>
       </c>
       <c r="M14">
-        <v>1.002815862078011</v>
+        <v>0.8713873311916561</v>
       </c>
       <c r="N14">
-        <v>1.011894301152497</v>
+        <v>0.9323817670998779</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.003829241826</v>
+        <v>0.8978232576883177</v>
       </c>
       <c r="D15">
-        <v>1.006847443437462</v>
+        <v>0.9107504518407851</v>
       </c>
       <c r="E15">
-        <v>1.006970675272938</v>
+        <v>0.9191447746890486</v>
       </c>
       <c r="F15">
-        <v>0.999353380142539</v>
+        <v>0.8547454159927587</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.010598830796842</v>
+        <v>0.9319828370813373</v>
       </c>
       <c r="K15">
-        <v>1.010509789992769</v>
+        <v>0.9274948588799939</v>
       </c>
       <c r="L15">
-        <v>1.01063253749945</v>
+        <v>0.935689997093632</v>
       </c>
       <c r="M15">
-        <v>1.003045429803249</v>
+        <v>0.872956142622851</v>
       </c>
       <c r="N15">
-        <v>1.01203399705388</v>
+        <v>0.9333063596099184</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.004871029079135</v>
+        <v>0.9047422021792947</v>
       </c>
       <c r="D16">
-        <v>1.007831568482542</v>
+        <v>0.9170017716257323</v>
       </c>
       <c r="E16">
-        <v>1.007868854363161</v>
+        <v>0.9248360251264223</v>
       </c>
       <c r="F16">
-        <v>1.000812090378618</v>
+        <v>0.8645508935875462</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.01140955614799</v>
+        <v>0.9372299402866794</v>
       </c>
       <c r="K16">
-        <v>1.01137257810577</v>
+        <v>0.9330091047446676</v>
       </c>
       <c r="L16">
-        <v>1.011409722754908</v>
+        <v>0.9406681753657429</v>
       </c>
       <c r="M16">
-        <v>1.004379896328309</v>
+        <v>0.8818423452971463</v>
       </c>
       <c r="N16">
-        <v>1.012845873728017</v>
+        <v>0.9385609143036632</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00552349678381</v>
+        <v>0.9089464448279219</v>
       </c>
       <c r="D17">
-        <v>1.008448015285461</v>
+        <v>0.9208043400306068</v>
       </c>
       <c r="E17">
-        <v>1.008431436462027</v>
+        <v>0.9282997065077914</v>
       </c>
       <c r="F17">
-        <v>1.001725679268547</v>
+        <v>0.8704797380520606</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.011917047514307</v>
+        <v>0.9404168933425406</v>
       </c>
       <c r="K17">
-        <v>1.01191277329278</v>
+        <v>0.9363597132599302</v>
       </c>
       <c r="L17">
-        <v>1.011896255789869</v>
+        <v>0.9436936416800399</v>
       </c>
       <c r="M17">
-        <v>1.005215485621803</v>
+        <v>0.8872164319301314</v>
       </c>
       <c r="N17">
-        <v>1.013354085790285</v>
+        <v>0.9417523931984121</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00590370941189</v>
+        <v>0.9113532149450041</v>
       </c>
       <c r="D18">
-        <v>1.00880727060816</v>
+        <v>0.922982531515307</v>
       </c>
       <c r="E18">
-        <v>1.008759289670581</v>
+        <v>0.9302843615698447</v>
       </c>
       <c r="F18">
-        <v>1.00225805900373</v>
+        <v>0.8738643640880792</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.012212683207891</v>
+        <v>0.9422407851200973</v>
       </c>
       <c r="K18">
-        <v>1.012227501417766</v>
+        <v>0.9382777525882505</v>
       </c>
       <c r="L18">
-        <v>1.012179695460119</v>
+        <v>0.945425732051591</v>
       </c>
       <c r="M18">
-        <v>1.005702345219156</v>
+        <v>0.8902846300395729</v>
       </c>
       <c r="N18">
-        <v>1.013650141320464</v>
+        <v>0.943578875111497</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.006033291474621</v>
+        <v>0.9121664453743117</v>
       </c>
       <c r="D19">
-        <v>1.008929715713357</v>
+        <v>0.9237187517251551</v>
       </c>
       <c r="E19">
-        <v>1.008871030162452</v>
+        <v>0.9309552612754854</v>
       </c>
       <c r="F19">
-        <v>1.00243950275952</v>
+        <v>0.8750065063022389</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.012313424113663</v>
+        <v>0.9428569758991088</v>
       </c>
       <c r="K19">
-        <v>1.012334755224156</v>
+        <v>0.938925831921176</v>
       </c>
       <c r="L19">
-        <v>1.012276282654582</v>
+        <v>0.9460110088212029</v>
       </c>
       <c r="M19">
-        <v>1.005868263575752</v>
+        <v>0.8913200291554909</v>
       </c>
       <c r="N19">
-        <v>1.013751025289877</v>
+        <v>0.9441959409520925</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.005453530624437</v>
+        <v>0.9085001479813546</v>
       </c>
       <c r="D20">
-        <v>1.008381908323378</v>
+        <v>0.9204005386959282</v>
       </c>
       <c r="E20">
-        <v>1.008371106976772</v>
+        <v>0.9279318299457312</v>
       </c>
       <c r="F20">
-        <v>1.001627711917561</v>
+        <v>0.8698513727606203</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.011862637435466</v>
+        <v>0.9400786394902089</v>
       </c>
       <c r="K20">
-        <v>1.011854852665216</v>
+        <v>0.9360040383643278</v>
       </c>
       <c r="L20">
-        <v>1.011844091372952</v>
+        <v>0.9433724622066834</v>
       </c>
       <c r="M20">
-        <v>1.00512588938099</v>
+        <v>0.886646831773403</v>
       </c>
       <c r="N20">
-        <v>1.013299598442891</v>
+        <v>0.9414136589868122</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.00356438935315</v>
+        <v>0.8960214076880058</v>
       </c>
       <c r="D21">
-        <v>1.006597279217181</v>
+        <v>0.9091238088420948</v>
       </c>
       <c r="E21">
-        <v>1.006742349700188</v>
+        <v>0.9176644916649164</v>
       </c>
       <c r="F21">
-        <v>0.9989825328530684</v>
+        <v>0.8521814021328123</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.010392639736102</v>
+        <v>0.9306159325593357</v>
       </c>
       <c r="K21">
-        <v>1.01029039310712</v>
+        <v>0.9260588230868761</v>
       </c>
       <c r="L21">
-        <v>1.010434888172092</v>
+        <v>0.9343937839848596</v>
       </c>
       <c r="M21">
-        <v>1.002706111623407</v>
+        <v>0.8706329654394305</v>
       </c>
       <c r="N21">
-        <v>1.011827513178183</v>
+        <v>0.9319375139267094</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.002373230232304</v>
+        <v>0.8876850155052856</v>
       </c>
       <c r="D22">
-        <v>1.005472323144594</v>
+        <v>0.9016052263172868</v>
       </c>
       <c r="E22">
-        <v>1.00571555694255</v>
+        <v>0.9108259361467875</v>
       </c>
       <c r="F22">
-        <v>0.9973146500667869</v>
+        <v>0.8402582730940593</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.00946490717971</v>
+        <v>0.9242896813650326</v>
       </c>
       <c r="K22">
-        <v>1.009303416377553</v>
+        <v>0.9194150455811625</v>
       </c>
       <c r="L22">
-        <v>1.009545645695087</v>
+        <v>0.9283982133377952</v>
       </c>
       <c r="M22">
-        <v>1.00117974896345</v>
+        <v>0.8598329127492766</v>
       </c>
       <c r="N22">
-        <v>1.010898463135149</v>
+        <v>0.9256022787300791</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.003005013103309</v>
+        <v>0.8921552993377558</v>
       </c>
       <c r="D23">
-        <v>1.0060689632019</v>
+        <v>0.9056354988579027</v>
       </c>
       <c r="E23">
-        <v>1.006260142868672</v>
+        <v>0.914490952399256</v>
       </c>
       <c r="F23">
-        <v>0.9981992885366436</v>
+        <v>0.8466645838235063</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.009957051354936</v>
+        <v>0.9276824836866396</v>
       </c>
       <c r="K23">
-        <v>1.009826953201411</v>
+        <v>0.9229776467409638</v>
       </c>
       <c r="L23">
-        <v>1.010017359913397</v>
+        <v>0.9316129456646838</v>
       </c>
       <c r="M23">
-        <v>1.001989382774208</v>
+        <v>0.8656351062132007</v>
       </c>
       <c r="N23">
-        <v>1.011391306211553</v>
+        <v>0.9289998992201429</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.005485146434493</v>
+        <v>0.9087019500822716</v>
       </c>
       <c r="D24">
-        <v>1.008411780164376</v>
+        <v>0.9205831213633646</v>
       </c>
       <c r="E24">
-        <v>1.008398368174521</v>
+        <v>0.9280981670728787</v>
       </c>
       <c r="F24">
-        <v>1.001671980694063</v>
+        <v>0.8701355298167049</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.011887224167814</v>
+        <v>0.9402315893947055</v>
       </c>
       <c r="K24">
-        <v>1.011881025611366</v>
+        <v>0.9361648641123557</v>
       </c>
       <c r="L24">
-        <v>1.011867663298968</v>
+        <v>0.9435176895938859</v>
       </c>
       <c r="M24">
-        <v>1.005166375688318</v>
+        <v>0.886904413464097</v>
       </c>
       <c r="N24">
-        <v>1.013324220091219</v>
+        <v>0.9415668260977167</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.008349117105379</v>
+        <v>0.9261395362398845</v>
       </c>
       <c r="D25">
-        <v>1.011118477954688</v>
+        <v>0.9363864368603602</v>
       </c>
       <c r="E25">
-        <v>1.010868279412309</v>
+        <v>0.9425060288739801</v>
       </c>
       <c r="F25">
-        <v>1.005682303827192</v>
+        <v>0.8945215118526706</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.01411240667111</v>
+        <v>0.9534366421186966</v>
       </c>
       <c r="K25">
-        <v>1.014250649547849</v>
+        <v>0.9500596610210162</v>
       </c>
       <c r="L25">
-        <v>1.01400128018193</v>
+        <v>0.9560676456271794</v>
       </c>
       <c r="M25">
-        <v>1.00883259329417</v>
+        <v>0.9090123784410714</v>
       </c>
       <c r="N25">
-        <v>1.015552562608901</v>
+        <v>0.9547906315112165</v>
       </c>
     </row>
   </sheetData>
